--- a/UNIT Testing.xlsx
+++ b/UNIT Testing.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>Test Case Template</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>Al dejar un nuevo mensaje, queda asentado la hora y fecha en que se hizo y el usuario que lo hizo</t>
+  </si>
+  <si>
+    <t>La imagen se carga correctamente y se ve.</t>
+  </si>
+  <si>
+    <t>La contraseña se modificó</t>
   </si>
 </sst>
 </file>
@@ -282,19 +288,19 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -584,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,282 +606,310 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H8" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="2">
         <v>3</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H10" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="2">
         <v>4</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="4">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="2">
         <v>2</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="4">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="2">
         <v>3</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
